--- a/productListings.xlsx
+++ b/productListings.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2,299.99</t>
+          <t>129.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HP PageWide Enterprise Color MFP 586f</t>
+          <t>HP ENVY 5055 All-in-One Printer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-pagewide-enterprise-color-mfp-586f</t>
+          <t>https://store.hp.com//us/en/pdp/hp-envy-5055-all-in-one-printer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>129.99</t>
+          <t>2,299.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1282656</t>
+          <t>3074457345618778821</t>
         </is>
       </c>
     </row>
@@ -719,12 +719,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HP ENVY 5055 All-in-One Printer</t>
+          <t>HP PageWide Enterprise Color MFP 586f</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-envy-5055-all-in-one-printer</t>
+          <t>https://store.hp.com//us/en/pdp/hp-pagewide-enterprise-color-mfp-586f</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3074457345618778821</t>
+          <t>1282656</t>
         </is>
       </c>
     </row>
@@ -1419,22 +1419,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HP PageWide Pro 577dw Multifunction Printer</t>
+          <t>HP OfficeJet 3830 All-in-One Printer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-pagewide-pro-577dw-multifunction-printer</t>
+          <t>https://store.hp.com//us/en/pdp/hp-officejet-3830-all-in-one-printer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>899.99</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1243169</t>
+          <t>1030654</t>
         </is>
       </c>
     </row>
@@ -1444,22 +1444,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HP OfficeJet 3830 All-in-One Printer</t>
+          <t>HP PageWide Pro 577dw Multifunction Printer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-officejet-3830-all-in-one-printer</t>
+          <t>https://store.hp.com//us/en/pdp/hp-pagewide-pro-577dw-multifunction-printer</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>899.99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1030654</t>
+          <t>1243169</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HP LaserJet Enterprise M607n</t>
+          <t>HP DesignJet T830 24-in Multifunction Printer</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m607n</t>
+          <t>https://store.hp.com//us/en/pdp/hp-designjet-t830-24-in-multifunction-printer</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>749.99</t>
+          <t>2,695.99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1695183</t>
+          <t>3074457345618628324</t>
         </is>
       </c>
     </row>
@@ -3019,22 +3019,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>HP DesignJet T830 24-in Multifunction Printer</t>
+          <t>HP LaserJet Enterprise M607n</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-designjet-t830-24-in-multifunction-printer</t>
+          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m607n</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2,695.99</t>
+          <t>749.99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3074457345618628324</t>
+          <t>1695183</t>
         </is>
       </c>
     </row>
@@ -3169,22 +3169,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>HP LaserJet Enterprise M607dn</t>
+          <t>HP LaserJet Pro M203dw Printer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m607dn</t>
+          <t>https://store.hp.com//us/en/pdp/hp-laserjet-pro-m203dw-printer</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>949.99</t>
+          <t>169.99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1695184</t>
+          <t>1490157</t>
         </is>
       </c>
     </row>
@@ -3194,22 +3194,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HP LaserJet Pro M203dw Printer</t>
+          <t>HP LaserJet Enterprise M607dn</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-laserjet-pro-m203dw-printer</t>
+          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m607dn</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>169.99</t>
+          <t>949.99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1490157</t>
+          <t>1695184</t>
         </is>
       </c>
     </row>
@@ -3269,22 +3269,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HP LaserJet Enterprise M608x</t>
+          <t>HP LaserJet Pro MFP M227fdw</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m608x</t>
+          <t>https://store.hp.com//us/en/pdp/hp-laserjet-pro-mfp-m227fdw</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1,599.99</t>
+          <t>269.99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1695187</t>
+          <t>1490158</t>
         </is>
       </c>
     </row>
@@ -3294,22 +3294,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HP LaserJet Pro MFP M227fdw</t>
+          <t>HP LaserJet Enterprise M608x</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://store.hp.com//us/en/pdp/hp-laserjet-pro-mfp-m227fdw</t>
+          <t>https://store.hp.com//us/en/pdp/hp-laserjet-enterprise-m608x</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>269.99</t>
+          <t>1,599.99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1490158</t>
+          <t>1695187</t>
         </is>
       </c>
     </row>
